--- a/biology/Histoire de la zoologie et de la botanique/Fed/Fed..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fed/Fed..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreï Alexandrovitch Fiodorov (Андрей Александрович Фёдоров), né le 17 (30) octobre 1908 à Tver et mort le 5 mars 1987 à Léningrad, est un botaniste soviétique qui fut membre-correspondant de l'Académie des sciences d'URSS (1970). C'est le frère du botaniste Alexandre Fiodorov (1906-1982).
 Translittérations alternatives : Andrey Aleksandrovich Fedorov, Andrej Aleksandrovich Feodorov, Andreas Fiodorov...
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreï Fiodorov naît à Tver dans la famille d'un jardinier. Il poursuit ses études supérieures à l'institut pédagogique de Tver en partie en même temps que son frère. Il en sort en 1929. Il travaille jusqu'en 1935 à la station de Soukhoumi, filiale de l'institut pansoviétique de botanique appliquée et de nouvelles cultures (aujourd'hui institut Vavilov). De 1935 à 1945, il poursuit ses recherches à l'Académie des sciences de la RS d'Arménie (avant 1943, filiale arménienne de l'Académie des sciences d'URSS)
 Il s'installe en 1945 à Léningrad pour travailler à l'institut de botanique Komarov auquel il consacre toute sa carrière, jusqu'à la fin de ses jours. Il en dirige le laboratoire à partir de 1963.
@@ -549,7 +563,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ordre du Drapeau rouge du Travail (à deux reprises)</t>
         </is>
@@ -579,7 +595,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Andreï Fiodorov, История высокогорной флоры Кавказа в четвертичное время [Histoire de la flore de haute montagne du Caucase à l'époque du Quaternaire] // Материалы по четвертичному периоду СССР [Matériaux pour la période du Quaternaire en URSS: recueil, Moscou, 1952, Т. 3.
 Andreï Fiodorov et Moïsseï Kirpitchnikov, Справочное пособие по систематике высших растений [Recueil didactique sur la taxonomie des végétaux supérieurs] : vol. I : Сокращения, условные обозначения, географические названия [Abréviations, désignations conventionnelles, appellations géographiques] / sous la dir. du membre-corresp. de l'Ac. Sc. d'URSS, Boris Chichkine; institut de botanique Komarov de l'Ac. Sc. d'URSS, Moscou-Léningrad, éd. Ac. Sc. URSS, 1954, 110 pages.
@@ -587,9 +605,43 @@
 Andreï Fiodorov, Диптерокарповый экваториальный влажнотропический лес Цейлона [La Forêt tropicale humide équatoriale de Dipterocarpaceae de Ceylan // Тр. Моск. общества испытателей природы. Отдел биологический. [Travaux de la Société des naturalistes de Moscou, département de biologie], 1960, Т. 3.
 Andreï Fiodorov et A. L. Takhtadjian, Флора Еревана [La Flore d'Erevan], Léningrad, éd. Naouka, 1972, 396 pages.
 Определитель высших растений Крыма [Précis des plantes supérieures de Crimée] / réd. Andreï Fiodorov, Léningrad, éd. Naouka, 1981, 380 pages.
-Andreï Fiodorov, Семейство охновые (Ochnaceae). Семейство чайные (Theaceae). Семейство тетрамеристовые (Tetrameristaceae). Семейство боннетовые (Bonnetiaceae). Семейство диптерокарповые (Dipterocarpaceae) [La famille des Ochnaceae; la famille des Theaceae; la famille des Tetrameristaceae; la famille des Bonnetiaceae; la famille des Dipterocarpaceae ] // Жизнь растений [La Vie des plantes], en six volumes. / dir. A. L. Takhtadjian, Moscou, éd. Prosvechtchenie, 1981. — Т. 5. part. 2. Цветковые растения [Les Plantes à fleur]. / dir. A. L. Takhtadjian, pp. 18–19, 21—25, 27, 123—126 ; 512 pages, 300 000 ex.
-Traductions en anglais
-Livres:
+Andreï Fiodorov, Семейство охновые (Ochnaceae). Семейство чайные (Theaceae). Семейство тетрамеристовые (Tetrameristaceae). Семейство боннетовые (Bonnetiaceae). Семейство диптерокарповые (Dipterocarpaceae) [La famille des Ochnaceae; la famille des Theaceae; la famille des Tetrameristaceae; la famille des Bonnetiaceae; la famille des Dipterocarpaceae ] // Жизнь растений [La Vie des plantes], en six volumes. / dir. A. L. Takhtadjian, Moscou, éd. Prosvechtchenie, 1981. — Т. 5. part. 2. Цветковые растения [Les Plantes à fleur]. / dir. A. L. Takhtadjian, pp. 18–19, 21—25, 27, 123—126 ; 512 pages, 300 000 ex.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fed.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fed.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions en anglais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Livres:
 2000. Flora of Russia: v. 3: The European Part and Bordering Regions: vol. 3. Ed. Taylor &amp; Francis. 370 pp.  (ISBN 90-5410-753-7)
 2001a. Flora of Russia: v. 4: The European Part and Bordering Regions: vol. 4. Ed. Taylor &amp; Francis. 532 pp.  (ISBN 90-5410-754-5)
 2001b. Flora of Russia: v. 5: The European Part and Bordering Regions: vol. 5. Ed. CRC Press. 532 pp.  (ISBN 90-5410-755-3)
